--- a/think tank/misc/daily-price-demo.xlsx
+++ b/think tank/misc/daily-price-demo.xlsx
@@ -463,145 +463,145 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>128.4400</t>
+          <t>137.5300</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>129.1257</t>
+          <t>140.0000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>127.9000</t>
+          <t>137.2300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>128.5400</t>
+          <t>139.8700</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4702352</t>
+          <t>1851144</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>127.0300</t>
+          <t>135.9800</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>128.3200</t>
+          <t>137.9200</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>125.7100</t>
+          <t>135.4300</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>128.2500</t>
+          <t>137.6300</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6467205</t>
+          <t>2425230</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>128.7500</t>
+          <t>130.9300</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>128.8100</t>
+          <t>135.2700</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>125.1300</t>
+          <t>130.7050</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>127.1500</t>
+          <t>135.1900</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11975361</t>
+          <t>1355167</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>130.7000</t>
+          <t>128.9700</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>130.7200</t>
+          <t>131.8250</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>128.0600</t>
+          <t>128.6100</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>129.1800</t>
+          <t>131.4300</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9882016</t>
+          <t>1254602</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-09-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>131.5800</t>
+          <t>129.3800</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>132.5600</t>
+          <t>130.5700</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -611,3052 +611,3052 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>130.8800</t>
+          <t>129.3000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>29690535</t>
+          <t>1533527</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>140.1500</t>
+          <t>129.7900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>140.3100</t>
+          <t>130.2700</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>137.7844</t>
+          <t>127.1200</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>138.1300</t>
+          <t>128.0100</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8231694</t>
+          <t>1695916</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>140.6800</t>
+          <t>127.6300</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>140.6800</t>
+          <t>129.1100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>138.6100</t>
+          <t>126.2100</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>139.9200</t>
+          <t>128.9300</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4519320</t>
+          <t>1282033</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>135.6000</t>
+          <t>129.3800</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>139.4300</t>
+          <t>130.2300</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>135.0200</t>
+          <t>128.0000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>139.0600</t>
+          <t>128.2500</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5298351</t>
+          <t>1890926</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>137.1800</t>
+          <t>128.5100</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>138.9000</t>
+          <t>129.0190</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>136.8000</t>
+          <t>127.1550</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>137.1800</t>
+          <t>128.2800</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4123213</t>
+          <t>1772371</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>140.8400</t>
+          <t>128.4300</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>141.5500</t>
+          <t>129.3500</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>138.5650</t>
+          <t>127.1800</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>139.1800</t>
+          <t>128.1100</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3235571</t>
+          <t>867312</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>140.6200</t>
+          <t>136.0000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>141.8700</t>
+          <t>136.0500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>140.1300</t>
+          <t>129.7800</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>141.0000</t>
+          <t>129.8700</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3912773</t>
+          <t>1252797</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-08-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>140.7600</t>
+          <t>135.3000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>141.3203</t>
+          <t>136.0800</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>139.8200</t>
+          <t>133.9900</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>140.4700</t>
+          <t>136.0100</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2820928</t>
+          <t>969054</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>138.9100</t>
+          <t>133.0200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>141.3250</t>
+          <t>134.5400</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>138.8300</t>
+          <t>132.6500</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>140.8300</t>
+          <t>133.6700</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3897077</t>
+          <t>1020493</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-08-23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>138.0000</t>
+          <t>133.1100</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>139.1400</t>
+          <t>134.1050</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>137.1300</t>
+          <t>132.0440</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>138.0800</t>
+          <t>132.6400</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3237059</t>
+          <t>1188279</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>139.9700</t>
+          <t>135.3000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>139.9700</t>
+          <t>136.0300</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>135.2700</t>
+          <t>133.5600</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>137.6200</t>
+          <t>133.9400</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6274067</t>
+          <t>1250729</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>141.0000</t>
+          <t>139.3500</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>141.6700</t>
+          <t>139.7300</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>139.2600</t>
+          <t>137.2600</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>141.1200</t>
+          <t>137.6200</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4012106</t>
+          <t>1477480</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>139.5800</t>
+          <t>141.8800</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>142.4600</t>
+          <t>141.9632</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>139.2800</t>
+          <t>138.7600</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>141.1900</t>
+          <t>139.9700</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4878020</t>
+          <t>1740337</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>142.7400</t>
+          <t>148.8400</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>143.5213</t>
+          <t>149.0000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>139.5000</t>
+          <t>140.0300</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>140.7100</t>
+          <t>142.2900</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4161491</t>
+          <t>4110100</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>142.9200</t>
+          <t>132.8900</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>144.1550</t>
+          <t>133.4200</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>141.3200</t>
+          <t>131.6600</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>141.8600</t>
+          <t>132.7700</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4065202</t>
+          <t>1809979</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-08-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>142.2600</t>
+          <t>133.2800</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>143.8300</t>
+          <t>134.6200</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>141.9500</t>
+          <t>132.6700</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>142.8000</t>
+          <t>133.9000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3935968</t>
+          <t>1291166</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>139.2000</t>
+          <t>132.2600</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>142.3700</t>
+          <t>133.6300</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>139.1300</t>
+          <t>131.4300</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>142.0600</t>
+          <t>133.5500</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11493012</t>
+          <t>865778</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-08-11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>137.1400</t>
+          <t>132.9100</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>138.6200</t>
+          <t>135.1300</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>136.5000</t>
+          <t>131.5900</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>138.4400</t>
+          <t>131.9500</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4547925</t>
+          <t>1162499</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>136.1000</t>
+          <t>131.3700</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>138.1800</t>
+          <t>132.7700</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>136.0300</t>
+          <t>130.1500</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>137.0800</t>
+          <t>132.5800</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3791635</t>
+          <t>1022142</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>135.9000</t>
+          <t>132.5000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>138.5000</t>
+          <t>132.5000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>135.9000</t>
+          <t>128.0200</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>137.8500</t>
+          <t>128.8800</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4089272</t>
+          <t>894724</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-08-08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>135.9900</t>
+          <t>134.2000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>136.9800</t>
+          <t>134.4200</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>132.8500</t>
+          <t>132.1400</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>135.0200</t>
+          <t>132.5200</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12968509</t>
+          <t>1257078</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>135.3000</t>
+          <t>132.2700</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>136.2400</t>
+          <t>133.8400</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>134.3900</t>
+          <t>131.7500</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>135.6700</t>
+          <t>133.6100</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5386396</t>
+          <t>675823</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>136.0100</t>
+          <t>134.6900</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>138.4500</t>
+          <t>135.0000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>135.5800</t>
+          <t>132.7400</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>137.0600</t>
+          <t>133.7700</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4606887</t>
+          <t>895554</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>135.0000</t>
+          <t>133.4500</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>136.9501</t>
+          <t>135.2600</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>134.8600</t>
+          <t>133.0200</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>135.7200</t>
+          <t>134.5600</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4607785</t>
+          <t>2113206</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>133.9700</t>
+          <t>132.4100</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>137.5700</t>
+          <t>134.6800</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>133.7600</t>
+          <t>131.0900</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>135.1100</t>
+          <t>131.2800</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6486044</t>
+          <t>1398687</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>137.8000</t>
+          <t>133.5100</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>137.8000</t>
+          <t>135.2300</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>135.2500</t>
+          <t>133.2600</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>136.1900</t>
+          <t>133.4300</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4661716</t>
+          <t>1081837</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>140.1500</t>
+          <t>131.2700</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>141.0400</t>
+          <t>134.5000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>137.9300</t>
+          <t>130.9000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>137.9600</t>
+          <t>134.1000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3592551</t>
+          <t>2214917</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>142.0700</t>
+          <t>128.1700</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>142.8000</t>
+          <t>131.8250</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>140.1500</t>
+          <t>126.7800</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>140.8300</t>
+          <t>131.1100</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3005666</t>
+          <t>1861392</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>142.6000</t>
+          <t>125.0400</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>142.9800</t>
+          <t>128.3300</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>140.9600</t>
+          <t>124.7100</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>142.7800</t>
+          <t>127.7100</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2887051</t>
+          <t>1395945</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>142.9800</t>
+          <t>124.6600</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>144.7300</t>
+          <t>125.6300</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>142.0000</t>
+          <t>123.3700</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>142.8800</t>
+          <t>125.1700</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4767100</t>
+          <t>1259957</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>140.2600</t>
+          <t>125.0500</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>142.5794</t>
+          <t>125.4100</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>139.7400</t>
+          <t>123.1900</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>141.1800</t>
+          <t>124.2600</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4352213</t>
+          <t>1044007</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>139.4500</t>
+          <t>127.4100</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>140.2900</t>
+          <t>128.5399</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>136.8500</t>
+          <t>124.3100</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>140.1500</t>
+          <t>125.0400</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3734812</t>
+          <t>1079466</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>139.6700</t>
+          <t>122.1200</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>140.4699</t>
+          <t>127.3400</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>138.5200</t>
+          <t>122.1200</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>139.4300</t>
+          <t>127.1900</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3796488</t>
+          <t>1682559</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>138.2000</t>
+          <t>119.9300</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>139.8300</t>
+          <t>121.2100</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>136.8100</t>
+          <t>119.2500</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>138.8400</t>
+          <t>119.8600</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7978053</t>
+          <t>1316597</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>137.3900</t>
+          <t>116.9900</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>139.7394</t>
+          <t>119.3400</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>137.2400</t>
+          <t>116.3700</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>139.2700</t>
+          <t>119.0600</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4608215</t>
+          <t>1296959</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>135.0000</t>
+          <t>118.9500</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>137.5500</t>
+          <t>119.3900</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>134.5200</t>
+          <t>114.4600</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>136.8900</t>
+          <t>115.1100</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3929338</t>
+          <t>1178166</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>132.8600</t>
+          <t>117.7800</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>134.8200</t>
+          <t>118.8800</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>132.8600</t>
+          <t>116.0000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>134.3900</t>
+          <t>118.8300</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3299303</t>
+          <t>969438</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>130.5700</t>
+          <t>117.1000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>134.3700</t>
+          <t>117.7300</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>130.4200</t>
+          <t>113.0200</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>133.8000</t>
+          <t>115.8800</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4189723</t>
+          <t>1347360</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>129.5000</t>
+          <t>117.4100</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>131.9500</t>
+          <t>119.7000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>129.4200</t>
+          <t>116.8600</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>131.1700</t>
+          <t>118.6500</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3591511</t>
+          <t>1378011</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>130.1800</t>
+          <t>122.4300</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>130.3700</t>
+          <t>123.4100</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>125.8000</t>
+          <t>118.7500</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>128.4800</t>
+          <t>119.2400</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6914458</t>
+          <t>1196763</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>132.0000</t>
+          <t>121.6100</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>132.3200</t>
+          <t>123.4600</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>128.7100</t>
+          <t>121.0100</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>129.6600</t>
+          <t>123.1200</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5819664</t>
+          <t>1304407</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>137.1000</t>
+          <t>120.9600</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>137.6150</t>
+          <t>123.2100</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>132.1700</t>
+          <t>120.9600</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>132.9400</t>
+          <t>122.5100</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6003015</t>
+          <t>1267400</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>137.1900</t>
+          <t>120.9900</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>138.3700</t>
+          <t>123.2200</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>135.6400</t>
+          <t>120.6200</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>138.3700</t>
+          <t>123.1500</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4372909</t>
+          <t>1221228</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>133.1000</t>
+          <t>120.8000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>136.5100</t>
+          <t>122.3400</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>132.4100</t>
+          <t>120.5550</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>135.0300</t>
+          <t>121.1800</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4250395</t>
+          <t>1642289</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>133.0000</t>
+          <t>117.7500</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>133.8000</t>
+          <t>120.6750</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>131.0500</t>
+          <t>116.4900</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>133.6000</t>
+          <t>120.5600</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4195218</t>
+          <t>1484902</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>131.2700</t>
+          <t>118.7900</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>133.6200</t>
+          <t>119.7600</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>130.4100</t>
+          <t>116.7000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>132.9000</t>
+          <t>119.2100</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5384809</t>
+          <t>1119770</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>129.8600</t>
+          <t>116.0000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>132.9600</t>
+          <t>119.9500</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>129.8600</t>
+          <t>116.0000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>130.7500</t>
+          <t>118.7700</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>5301131</t>
+          <t>1611981</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>135.0000</t>
+          <t>117.1900</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>135.4100</t>
+          <t>118.5400</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>128.4300</t>
+          <t>116.2400</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>129.1300</t>
+          <t>117.9000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>8642398</t>
+          <t>906648</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>134.4100</t>
+          <t>120.4500</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>136.3450</t>
+          <t>121.2400</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>133.3150</t>
+          <t>116.7200</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>134.4400</t>
+          <t>117.0600</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7647933</t>
+          <t>1426079</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>135.4700</t>
+          <t>121.8300</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>137.9900</t>
+          <t>122.2950</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>135.4700</t>
+          <t>119.8500</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>137.6700</t>
+          <t>120.5700</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>7306396</t>
+          <t>1805698</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>136.4600</t>
+          <t>119.9500</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>137.2600</t>
+          <t>121.3500</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>134.7600</t>
+          <t>118.4460</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>135.9200</t>
+          <t>121.2900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5957434</t>
+          <t>3780403</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>132.8700</t>
+          <t>114.6000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>137.8700</t>
+          <t>118.7500</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>132.1400</t>
+          <t>114.2700</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>137.4000</t>
+          <t>118.6000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5913705</t>
+          <t>1801564</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>133.0000</t>
+          <t>112.6600</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>133.6000</t>
+          <t>115.0800</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>131.9900</t>
+          <t>112.5200</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>132.5200</t>
+          <t>113.8000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3688574</t>
+          <t>2585285</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>133.0000</t>
+          <t>114.4100</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>133.7700</t>
+          <t>115.5700</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>130.8900</t>
+          <t>113.7600</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>133.0400</t>
+          <t>113.8800</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4213477</t>
+          <t>1588225</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>135.1300</t>
+          <t>114.7700</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>135.5545</t>
+          <t>116.7300</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>132.0000</t>
+          <t>112.6700</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>132.2100</t>
+          <t>112.7100</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>5078660</t>
+          <t>2681452</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>136.8500</t>
+          <t>113.8000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>136.9900</t>
+          <t>115.0800</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>134.8100</t>
+          <t>113.3600</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>135.7400</t>
+          <t>114.9600</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4477068</t>
+          <t>1601588</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>135.7800</t>
+          <t>117.2400</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>137.1200</t>
+          <t>117.7700</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>134.6300</t>
+          <t>113.7700</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>135.0600</t>
+          <t>116.4700</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4369052</t>
+          <t>1886299</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>139.0000</t>
+          <t>115.9900</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>139.8700</t>
+          <t>116.7000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>136.1700</t>
+          <t>113.2500</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>136.1900</t>
+          <t>116.0100</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4887395</t>
+          <t>1314047</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>137.5900</t>
+          <t>116.4800</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>139.6500</t>
+          <t>117.7000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>135.1900</t>
+          <t>115.3800</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>139.1000</t>
+          <t>116.2800</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5748289</t>
+          <t>1405810</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>139.7000</t>
+          <t>121.6300</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>140.4399</t>
+          <t>121.9300</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>137.3500</t>
+          <t>119.9000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>138.2500</t>
+          <t>120.5700</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6508599</t>
+          <t>1379592</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>138.2300</t>
+          <t>126.0900</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>141.8800</t>
+          <t>126.9200</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>137.3500</t>
+          <t>124.1300</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>139.8500</t>
+          <t>124.1400</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>9922349</t>
+          <t>814426</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>135.0000</t>
+          <t>127.8800</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>139.5600</t>
+          <t>128.6400</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>133.3800</t>
+          <t>126.4007</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>138.3200</t>
+          <t>126.8400</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>17770306</t>
+          <t>1049455</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>126.0800</t>
+          <t>126.5700</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>129.4000</t>
+          <t>131.2000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>126.0000</t>
+          <t>126.5700</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>129.1500</t>
+          <t>128.9000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>7971361</t>
+          <t>1236306</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>126.6000</t>
+          <t>129.3800</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>127.3899</t>
+          <t>130.0000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>125.5300</t>
+          <t>126.9700</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>126.1700</t>
+          <t>127.6300</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4884150</t>
+          <t>1310578</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>128.9300</t>
+          <t>127.6200</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>130.5800</t>
+          <t>128.7200</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>126.3800</t>
+          <t>126.4150</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>126.5600</t>
+          <t>128.4900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6384180</t>
+          <t>1722770</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>125.6400</t>
+          <t>122.9600</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>126.6700</t>
+          <t>129.1900</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>124.9100</t>
+          <t>122.3000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>126.1400</t>
+          <t>129.1000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3064918</t>
+          <t>1444413</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>126.4200</t>
+          <t>127.8600</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>127.3400</t>
+          <t>128.9800</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>125.5835</t>
+          <t>122.4300</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>125.9800</t>
+          <t>123.0900</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2690998</t>
+          <t>1757620</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>127.9500</t>
+          <t>128.9100</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>128.1750</t>
+          <t>130.0700</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>126.1800</t>
+          <t>126.7200</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>126.3700</t>
+          <t>127.5600</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3202545</t>
+          <t>3403072</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>128.0100</t>
+          <t>124.9200</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>128.7800</t>
+          <t>130.7700</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>127.2700</t>
+          <t>124.4900</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>127.7300</t>
+          <t>130.5500</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3143309</t>
+          <t>2698841</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>128.8700</t>
+          <t>120.7500</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>129.2499</t>
+          <t>124.2200</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>126.7300</t>
+          <t>120.7150</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>128.5500</t>
+          <t>123.8500</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3538317</t>
+          <t>1768031</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>127.7800</t>
+          <t>127.2100</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>129.5150</t>
+          <t>127.4600</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>127.2500</t>
+          <t>119.1800</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>129.3900</t>
+          <t>120.3800</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3958057</t>
+          <t>3524637</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>129.8500</t>
+          <t>125.3200</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>131.2300</t>
+          <t>126.0000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>128.6600</t>
+          <t>123.8000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>128.8900</t>
+          <t>124.4100</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3102238</t>
+          <t>2187684</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>130.2600</t>
+          <t>126.4500</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>130.4500</t>
+          <t>126.4700</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>128.9300</t>
+          <t>123.7600</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>130.2700</t>
+          <t>125.9800</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2811100</t>
+          <t>2037143</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>129.6600</t>
+          <t>124.0300</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>130.2700</t>
+          <t>125.5800</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>128.0600</t>
+          <t>122.4400</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>130.1500</t>
+          <t>125.1300</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4012373</t>
+          <t>2594718</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>130.7200</t>
+          <t>120.3100</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>131.8800</t>
+          <t>123.5800</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>130.0000</t>
+          <t>119.5300</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>130.0200</t>
+          <t>122.4000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4274029</t>
+          <t>2310072</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>132.0100</t>
+          <t>121.1900</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>133.0800</t>
+          <t>121.9050</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>131.3900</t>
+          <t>120.3100</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>132.1300</t>
+          <t>120.7900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2622860</t>
+          <t>1335997</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>132.0400</t>
+          <t>122.7000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>132.8400</t>
+          <t>123.7000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>130.4300</t>
+          <t>121.4500</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>131.9400</t>
+          <t>123.0800</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>5791032</t>
+          <t>2216184</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>130.8200</t>
+          <t>119.6300</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>131.5000</t>
+          <t>121.0300</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>129.6000</t>
+          <t>118.8300</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>131.4700</t>
+          <t>120.3000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2483492</t>
+          <t>2011653</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>129.5000</t>
+          <t>117.3800</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>131.4000</t>
+          <t>120.7150</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>129.3100</t>
+          <t>117.2700</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>131.3500</t>
+          <t>119.3800</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3516923</t>
+          <t>1328411</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>128.3300</t>
+          <t>113.6100</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>129.3700</t>
+          <t>116.2500</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>127.8000</t>
+          <t>112.7800</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>129.2500</t>
+          <t>116.1300</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2971075</t>
+          <t>1338023</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>129.0800</t>
+          <t>115.7000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>129.3200</t>
+          <t>118.0000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>128.2500</t>
+          <t>113.8400</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>128.3000</t>
+          <t>113.9900</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2924535</t>
+          <t>1607013</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>128.5000</t>
+          <t>115.4400</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>129.3000</t>
+          <t>117.9400</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>127.8500</t>
+          <t>113.1400</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>129.0600</t>
+          <t>116.6400</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2649026</t>
+          <t>2141753</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>129.0000</t>
+          <t>119.1300</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>129.7400</t>
+          <t>119.1300</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>127.4000</t>
+          <t>112.6400</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>128.1000</t>
+          <t>113.1100</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3379393</t>
+          <t>1861704</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>127.3800</t>
+          <t>120.8800</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>128.9300</t>
+          <t>121.8800</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>126.3700</t>
+          <t>118.0000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>128.7600</t>
+          <t>121.0800</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>7400216</t>
+          <t>1629034</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>127.1000</t>
+          <t>124.6200</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>128.2900</t>
+          <t>125.2100</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>126.5300</t>
+          <t>120.8000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>127.9600</t>
+          <t>122.1500</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3671903</t>
+          <t>2123645</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>126.5000</t>
+          <t>121.6900</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>127.2842</t>
+          <t>126.6900</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>124.7100</t>
+          <t>121.4400</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>127.0400</t>
+          <t>126.3000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4292845</t>
+          <t>2454301</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>124.0000</t>
+          <t>119.7200</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>125.9398</t>
+          <t>123.9800</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>123.2200</t>
+          <t>119.0900</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>125.6400</t>
+          <t>122.4000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4021228</t>
+          <t>3217838</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>124.4500</t>
+          <t>118.3800</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>125.1600</t>
+          <t>120.3400</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>122.6850</t>
+          <t>116.4900</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>123.9400</t>
+          <t>119.5700</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3289440</t>
+          <t>1756159</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>125.0000</t>
+          <t>120.7100</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>126.7700</t>
+          <t>123.8900</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>123.9100</t>
+          <t>119.0500</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>123.9600</t>
+          <t>119.2700</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4119630</t>
+          <t>2269171</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>125.7500</t>
+          <t>119.5200</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>126.0300</t>
+          <t>121.5600</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>123.1250</t>
+          <t>117.9300</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>124.3500</t>
+          <t>121.0600</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>5326835</t>
+          <t>3152172</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>127.4100</t>
+          <t>118.2000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>128.1000</t>
+          <t>120.8500</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>125.9100</t>
+          <t>117.5300</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>126.2200</t>
+          <t>117.6800</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4403499</t>
+          <t>2007479</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>126.6200</t>
+          <t>121.0000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>128.3450</t>
+          <t>121.2800</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>124.8200</t>
+          <t>117.2400</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>125.6800</t>
+          <t>117.9400</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4887565</t>
+          <t>2928082</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>126.4700</t>
+          <t>119.5300</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>127.9050</t>
+          <t>121.6100</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>125.6200</t>
+          <t>118.2300</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>126.0700</t>
+          <t>121.4500</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>5047358</t>
+          <t>2236881</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>124.4000</t>
+          <t>124.7700</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>127.3500</t>
+          <t>125.1000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>124.2103</t>
+          <t>121.1500</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>126.6200</t>
+          <t>121.3200</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>4402911</t>
+          <t>1947222</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>124.9600</t>
+          <t>130.3600</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>126.6650</t>
+          <t>131.0300</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>124.2351</t>
+          <t>124.8500</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>125.9300</t>
+          <t>125.2900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>5206649</t>
+          <t>2177667</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>122.5900</t>
+          <t>127.7100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>124.6400</t>
+          <t>130.3200</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>121.8000</t>
+          <t>126.8400</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>123.8600</t>
+          <t>129.3700</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4891435</t>
+          <t>2011105</t>
         </is>
       </c>
     </row>
